--- a/param_files/hiv_param_gen/hiv_input_gen_data_1980_2028.xlsx
+++ b/param_files/hiv_param_gen/hiv_input_gen_data_1980_2028.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/github/epi_model_HIV_TB/param_files/hiv_param_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1303E5-47D5-9844-B5FD-A72AC2BEDBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D01D3F-18BA-6D4A-B090-169B343E8CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16180" yWindow="0" windowWidth="23740" windowHeight="19840" xr2:uid="{245E17E2-FF17-6349-AC56-58836A51DAF9}"/>
+    <workbookView xWindow="12680" yWindow="0" windowWidth="23740" windowHeight="19840" xr2:uid="{245E17E2-FF17-6349-AC56-58836A51DAF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -525,9 +525,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4656BECB-10C2-3045-9B70-7753669080C4}">
   <dimension ref="A1:Q99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L90" sqref="L90"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
